--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H2">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I2">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J2">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.5756983954606</v>
+        <v>17.13024733333333</v>
       </c>
       <c r="N2">
-        <v>16.5756983954606</v>
+        <v>51.390742</v>
       </c>
       <c r="O2">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465044</v>
       </c>
       <c r="P2">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465043</v>
       </c>
       <c r="Q2">
-        <v>477.2323282725842</v>
+        <v>651.7469430119295</v>
       </c>
       <c r="R2">
-        <v>477.2323282725842</v>
+        <v>5865.722487107366</v>
       </c>
       <c r="S2">
-        <v>0.2438438317352216</v>
+        <v>0.239420884301139</v>
       </c>
       <c r="T2">
-        <v>0.2438438317352216</v>
+        <v>0.239420884301139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H3">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I3">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J3">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.4864398479332</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>27.4864398479332</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858779</v>
       </c>
       <c r="P3">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858778</v>
       </c>
       <c r="Q3">
-        <v>791.3644041777339</v>
+        <v>1050.499952722284</v>
       </c>
       <c r="R3">
-        <v>791.3644041777339</v>
+        <v>9454.49957450056</v>
       </c>
       <c r="S3">
-        <v>0.4043509150187738</v>
+        <v>0.3859038087340447</v>
       </c>
       <c r="T3">
-        <v>0.4043509150187738</v>
+        <v>0.3859038087340447</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H4">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I4">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J4">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.15855446623351</v>
+        <v>4.423514</v>
       </c>
       <c r="N4">
-        <v>4.15855446623351</v>
+        <v>13.270542</v>
       </c>
       <c r="O4">
-        <v>0.07365323317322005</v>
+        <v>0.07641520344774541</v>
       </c>
       <c r="P4">
-        <v>0.07365323317322005</v>
+        <v>0.0764152034477454</v>
       </c>
       <c r="Q4">
-        <v>119.7292918114673</v>
+        <v>168.2994804903073</v>
       </c>
       <c r="R4">
-        <v>119.7292918114673</v>
+        <v>1514.695324412766</v>
       </c>
       <c r="S4">
-        <v>0.06117617679407714</v>
+        <v>0.06182523888826912</v>
       </c>
       <c r="T4">
-        <v>0.06117617679407714</v>
+        <v>0.06182523888826912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H5">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I5">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J5">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.24056889518625</v>
+        <v>8.723210333333332</v>
       </c>
       <c r="N5">
-        <v>8.24056889518625</v>
+        <v>26.169631</v>
       </c>
       <c r="O5">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="P5">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="Q5">
-        <v>237.2549129644737</v>
+        <v>331.8881249856292</v>
       </c>
       <c r="R5">
-        <v>237.2549129644737</v>
+        <v>2986.993124870663</v>
       </c>
       <c r="S5">
-        <v>0.1212263789518873</v>
+        <v>0.1219199402852463</v>
       </c>
       <c r="T5">
-        <v>0.1212263789518873</v>
+        <v>0.1219199402852463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H6">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I6">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J6">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.5756983954606</v>
+        <v>17.13024733333333</v>
       </c>
       <c r="N6">
-        <v>16.5756983954606</v>
+        <v>51.390742</v>
       </c>
       <c r="O6">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465044</v>
       </c>
       <c r="P6">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465043</v>
       </c>
       <c r="Q6">
-        <v>26.32700198293946</v>
+        <v>27.70381255867911</v>
       </c>
       <c r="R6">
-        <v>26.32700198293946</v>
+        <v>249.334313028112</v>
       </c>
       <c r="S6">
-        <v>0.0134518905390541</v>
+        <v>0.01017706545835006</v>
       </c>
       <c r="T6">
-        <v>0.0134518905390541</v>
+        <v>0.01017706545835006</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H7">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I7">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J7">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.4864398479332</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>27.4864398479332</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858779</v>
       </c>
       <c r="P7">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858778</v>
       </c>
       <c r="Q7">
-        <v>43.6564142949571</v>
+        <v>44.65360995576889</v>
       </c>
       <c r="R7">
-        <v>43.6564142949571</v>
+        <v>401.88248960192</v>
       </c>
       <c r="S7">
-        <v>0.02230642542602911</v>
+        <v>0.01640361630764511</v>
       </c>
       <c r="T7">
-        <v>0.02230642542602911</v>
+        <v>0.0164036163076451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H8">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I8">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J8">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.15855446623351</v>
+        <v>4.423514</v>
       </c>
       <c r="N8">
-        <v>4.15855446623351</v>
+        <v>13.270542</v>
       </c>
       <c r="O8">
-        <v>0.07365323317322005</v>
+        <v>0.07641520344774541</v>
       </c>
       <c r="P8">
-        <v>0.07365323317322005</v>
+        <v>0.0764152034477454</v>
       </c>
       <c r="Q8">
-        <v>6.604986955401773</v>
+        <v>7.153907373434668</v>
       </c>
       <c r="R8">
-        <v>6.604986955401773</v>
+        <v>64.38516636091201</v>
       </c>
       <c r="S8">
-        <v>0.003374845399925199</v>
+        <v>0.002628005927639335</v>
       </c>
       <c r="T8">
-        <v>0.003374845399925199</v>
+        <v>0.002628005927639334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H9">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I9">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J9">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.24056889518625</v>
+        <v>8.723210333333332</v>
       </c>
       <c r="N9">
-        <v>8.24056889518625</v>
+        <v>26.169631</v>
       </c>
       <c r="O9">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="P9">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="Q9">
-        <v>13.08840619973703</v>
+        <v>14.10757120326845</v>
       </c>
       <c r="R9">
-        <v>13.08840619973703</v>
+        <v>126.968140829416</v>
       </c>
       <c r="S9">
-        <v>0.006687575275135133</v>
+        <v>0.005182451884190872</v>
       </c>
       <c r="T9">
-        <v>0.006687575275135133</v>
+        <v>0.005182451884190871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H10">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I10">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J10">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.5756983954606</v>
+        <v>17.13024733333333</v>
       </c>
       <c r="N10">
-        <v>16.5756983954606</v>
+        <v>51.390742</v>
       </c>
       <c r="O10">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465044</v>
       </c>
       <c r="P10">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465043</v>
       </c>
       <c r="Q10">
-        <v>71.00589748624023</v>
+        <v>126.1001188337367</v>
       </c>
       <c r="R10">
-        <v>71.00589748624023</v>
+        <v>1134.90106950363</v>
       </c>
       <c r="S10">
-        <v>0.03628075696697897</v>
+        <v>0.04632319688701529</v>
       </c>
       <c r="T10">
-        <v>0.03628075696697897</v>
+        <v>0.04632319688701528</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H11">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I11">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J11">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.4864398479332</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N11">
-        <v>27.4864398479332</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O11">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858779</v>
       </c>
       <c r="P11">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858778</v>
       </c>
       <c r="Q11">
-        <v>117.7446212847685</v>
+        <v>203.2509247545333</v>
       </c>
       <c r="R11">
-        <v>117.7446212847685</v>
+        <v>1829.2583227908</v>
       </c>
       <c r="S11">
-        <v>0.06016210118081364</v>
+        <v>0.074664740144188</v>
       </c>
       <c r="T11">
-        <v>0.06016210118081364</v>
+        <v>0.07466474014418799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H12">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I12">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J12">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.15855446623351</v>
+        <v>4.423514</v>
       </c>
       <c r="N12">
-        <v>4.15855446623351</v>
+        <v>13.270542</v>
       </c>
       <c r="O12">
-        <v>0.07365323317322005</v>
+        <v>0.07641520344774541</v>
       </c>
       <c r="P12">
-        <v>0.07365323317322005</v>
+        <v>0.0764152034477454</v>
       </c>
       <c r="Q12">
-        <v>17.8141448447921</v>
+        <v>32.56261455007</v>
       </c>
       <c r="R12">
-        <v>17.8141448447921</v>
+        <v>293.06353095063</v>
       </c>
       <c r="S12">
-        <v>0.009102210979217715</v>
+        <v>0.01196195863183695</v>
       </c>
       <c r="T12">
-        <v>0.009102210979217715</v>
+        <v>0.01196195863183695</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H13">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I13">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J13">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.24056889518625</v>
+        <v>8.723210333333332</v>
       </c>
       <c r="N13">
-        <v>8.24056889518625</v>
+        <v>26.169631</v>
       </c>
       <c r="O13">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="P13">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="Q13">
-        <v>35.3004124616636</v>
+        <v>64.21377568230166</v>
       </c>
       <c r="R13">
-        <v>35.3004124616636</v>
+        <v>577.923981140715</v>
       </c>
       <c r="S13">
-        <v>0.01803689173288623</v>
+        <v>0.02358909255043522</v>
       </c>
       <c r="T13">
-        <v>0.01803689173288623</v>
+        <v>0.02358909255043522</v>
       </c>
     </row>
   </sheetData>
